--- a/src/test/resources/adi01.xlsx
+++ b/src/test/resources/adi01.xlsx
@@ -22,24 +22,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">rockyharry93@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Email Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suhasjoshi1856@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhasjoshi1857</t>
+  </si>
   <si>
     <t xml:space="preserve">rathoradi435@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Email Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suhasjoshi1856@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suhasjoshi1857</t>
   </si>
 </sst>
 </file>
@@ -49,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -74,6 +77,13 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -81,6 +91,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -137,24 +148,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,12 +254,12 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -257,7 +272,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -281,14 +296,14 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -320,15 +335,15 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
